--- a/backend/upload_data/templates/video_import_template.xlsx
+++ b/backend/upload_data/templates/video_import_template.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="示例数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="导入模板" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="字段说明" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="字段说明" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,17 +542,17 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>award_name</t>
+          <t>award_names</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>award_year</t>
+          <t>award_years</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>award_description</t>
+          <t>award_descriptions</t>
         </is>
       </c>
     </row>
@@ -663,15 +662,17 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>最佳团体奖</t>
-        </is>
-      </c>
-      <c r="W2" t="n">
-        <v>2024</v>
+          <t>最佳团体奖,最佳创意奖,观众选择奖</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>2024,2024,2024</t>
+        </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>获得团体组第一名</t>
+          <t>获得团体组第一名,创意设计优秀,观众投票最高</t>
         </is>
       </c>
     </row>
@@ -740,8 +741,10 @@
           <t>最佳个人奖</t>
         </is>
       </c>
-      <c r="W3" t="n">
-        <v>2023</v>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -755,147 +758,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:X1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>bv_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>thumbnail</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>competition_year</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>group_name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>competition_name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>group_description</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>group_founded_date</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>group_location</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>group_website</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>group_email</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>group_phone</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>group_weibo</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>group_wechat</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>group_qq_group</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>group_bilibili</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>competition_description</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>competition_website</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>award_name</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>award_year</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>award_description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,7 +1148,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>award_name</t>
+          <t>award_names</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1296,14 +1158,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>奖项名称，不存在则自动创建</t>
+          <t>奖项名称，多个奖项用逗号分隔，不存在则自动创建</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>award_year</t>
+          <t>award_years</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1313,14 +1175,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>获奖年份</t>
+          <t>获奖年份，多个年份用逗号分隔，需与奖项数量对应</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>award_description</t>
+          <t>award_descriptions</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1330,7 +1192,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>获奖描述</t>
+          <t>获奖描述，多个描述用逗号分隔，需与奖项数量对应</t>
         </is>
       </c>
     </row>

--- a/backend/upload_data/templates/video_import_template.xlsx
+++ b/backend/upload_data/templates/video_import_template.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,95 +462,105 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>competition_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>group_name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>competition_name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>group_description</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>group_founded_date</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>group_location</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>group_website</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>group_email</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>group_phone</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>group_weibo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>group_wechat</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>group_qq_group</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>group_bilibili</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>competition_description</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>competition_website</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>award_names</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>award_years</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>award_descriptions</t>
         </is>
@@ -587,90 +597,98 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>示例社团A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>全国Cosplay大赛</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>初音未来:IP,2024:年份</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>初音未来:IP,甜美:风格</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>这是一个专业的Cosplay社团</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2020-01-01</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>北京</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://example-group-a.com</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>contact@group-a.com</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>13800138000</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>https://weibo.com/group-a</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>group_a_wechat</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>123456789</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>https://space.bilibili.com/123456</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>国内最大的Cosplay比赛</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>https://cosplay-competition.com</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>最佳团体奖,最佳创意奖,观众选择奖</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>2024,2024,2024</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>获得团体组第一名,创意设计优秀,观众投票最高</t>
         </is>
@@ -699,54 +717,62 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>示例社团B</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Anime Expo</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>东方Project:IP</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>东方Project:IP,古风:风格</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>上海</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>国际知名动漫展览</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>https://anime-expo.com</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>最佳个人奖</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>获得个人组金奖</t>
         </is>
@@ -763,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +902,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>competition_year</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -886,14 +912,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>比赛年份</t>
+          <t>视频年份</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>group_name</t>
+          <t>region</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -903,14 +929,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>所属社团名称，不存在则自动创建</t>
+          <t>视频地区</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>competition_name</t>
+          <t>competition_year</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -920,14 +946,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>所属比赛名称，不存在则自动创建</t>
+          <t>比赛年份</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tags</t>
+          <t>group_name</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -937,14 +963,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>标签，格式：标签名:分类,标签名:分类</t>
+          <t>所属社团名称，不存在则自动创建</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>group_description</t>
+          <t>competition_name</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -954,14 +980,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>社团描述(新建社团时使用)</t>
+          <t>所属比赛名称，不存在则自动创建</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>group_founded_date</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -971,14 +997,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>社团成立时间，格式：YYYY-MM-DD</t>
+          <t>标签，格式：标签名:分类,标签名:分类，分类仅支持：IP、风格、其他</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>group_location</t>
+          <t>group_description</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,14 +1014,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>社团所在地</t>
+          <t>社团描述(新建社团时使用)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>group_website</t>
+          <t>group_founded_date</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1005,14 +1031,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>社团官网</t>
+          <t>社团成立时间，格式：YYYY-MM-DD</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>group_email</t>
+          <t>group_location</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1022,14 +1048,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>社团邮箱</t>
+          <t>社团所在地</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>group_phone</t>
+          <t>group_website</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1039,14 +1065,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>社团电话</t>
+          <t>社团官网</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>group_weibo</t>
+          <t>group_email</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1056,14 +1082,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>社团微博链接</t>
+          <t>社团邮箱</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>group_wechat</t>
+          <t>group_phone</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1073,14 +1099,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>社团微信号</t>
+          <t>社团电话</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>group_qq_group</t>
+          <t>group_weibo</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1090,14 +1116,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>社团QQ群</t>
+          <t>社团微博链接</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>group_bilibili</t>
+          <t>group_wechat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1107,14 +1133,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>社团B站链接</t>
+          <t>社团微信号</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>competition_description</t>
+          <t>group_qq_group</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1124,14 +1150,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>比赛描述(新建比赛时使用)</t>
+          <t>社团QQ群</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>competition_website</t>
+          <t>group_bilibili</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1141,14 +1167,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>比赛官网</t>
+          <t>社团B站链接</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>award_names</t>
+          <t>competition_description</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1158,14 +1184,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>奖项名称，多个奖项用逗号分隔，不存在则自动创建</t>
+          <t>比赛描述(新建比赛时使用)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>award_years</t>
+          <t>competition_website</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1175,22 +1201,56 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>获奖年份，多个年份用逗号分隔，需与奖项数量对应</t>
+          <t>比赛官网</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>award_names</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>奖项名称，多个奖项用逗号分隔，不存在则自动创建</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>award_years</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>获奖年份，多个年份用逗号分隔，需与奖项数量对应</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>award_descriptions</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>获奖描述，多个描述用逗号分隔，需与奖项数量对应</t>
         </is>

--- a/backend/upload_data/templates/video_import_template.xlsx
+++ b/backend/upload_data/templates/video_import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="示例数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="字段说明" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="示例数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="字段说明" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,37 +467,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>group_name</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>competition_year</t>
+          <t>competition_name</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>group_name</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>competition_name</t>
+          <t>group_description</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>tags</t>
+          <t>group_founded_date</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>group_description</t>
+          <t>group_province</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>group_founded_date</t>
+          <t>group_city</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -597,40 +597,42 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2024</v>
+          <t>示例社团A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>全国Cosplay大赛</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>示例社团A</t>
+          <t>初音未来:IP,甜美:风格</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>全国Cosplay大赛</t>
+          <t>这是一个专业的Cosplay社团</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>初音未来:IP,甜美:风格</t>
+          <t>2020-01-01</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>这是一个专业的Cosplay社团</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>朝阳区CBD</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -717,32 +719,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2023</v>
+          <t>示例社团B</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Anime Expo</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>示例社团B</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Anime Expo</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>东方Project:IP,古风:风格</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>上海市</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>浦东新区</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -919,7 +923,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>group_name</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -929,14 +933,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>视频地区</t>
+          <t>所属社团名称，不存在则自动创建</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>competition_year</t>
+          <t>competition_name</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -946,14 +950,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>比赛年份</t>
+          <t>所属比赛名称，不存在则自动创建</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>group_name</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -963,14 +967,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>所属社团名称，不存在则自动创建</t>
+          <t>标签，格式：标签名:分类,标签名:分类，分类仅支持：IP、风格、其他</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>competition_name</t>
+          <t>group_description</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -980,14 +984,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>所属比赛名称，不存在则自动创建</t>
+          <t>社团描述(新建社团时使用)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tags</t>
+          <t>group_founded_date</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -997,14 +1001,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>标签，格式：标签名:分类,标签名:分类，分类仅支持：IP、风格、其他</t>
+          <t>社团成立时间，格式：YYYY-MM-DD</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>group_description</t>
+          <t>group_province</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1014,14 +1018,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>社团描述(新建社团时使用)</t>
+          <t>社团所在省份</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>group_founded_date</t>
+          <t>group_city</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,7 +1035,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>社团成立时间，格式：YYYY-MM-DD</t>
+          <t>社团所在城市</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1052,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>社团所在地</t>
+          <t>社团详细地址</t>
         </is>
       </c>
     </row>
